--- a/Role_Definitions.xlsx
+++ b/Role_Definitions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Roles</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Role_4</t>
+  </si>
+  <si>
+    <t>Role_5</t>
+  </si>
+  <si>
+    <t>Role_6</t>
   </si>
 </sst>
 </file>
@@ -392,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -461,6 +467,22 @@
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
